--- a/src/main/resources/upload/room_1/who_1.xlsx
+++ b/src/main/resources/upload/room_1/who_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khactu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khactu/Data/Study/PhanTan/WEB/metting/src/main/resources/upload/room_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B1E3E8-AD58-0243-9A94-ED3FEB2393C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ECB02B-54AB-8941-9154-5D9E4FED29FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="440" windowWidth="24880" windowHeight="15020" xr2:uid="{CE82CFD4-B455-814E-9572-F618F598D35B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Khac Tu</t>
   </si>
@@ -34,6 +34,30 @@
   </si>
   <si>
     <t>Le Thu</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:37:30</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:38:30</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:37:35</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:39:21</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:37:45</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:40:13</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:42:21</t>
+  </si>
+  <si>
+    <t>23/05/2018 9:43:11</t>
   </si>
 </sst>
 </file>
@@ -385,54 +409,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0123E69-9CCE-4B4C-8C4B-B3A2C002ECB8}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>22</v>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/upload/room_1/who_1.xlsx
+++ b/src/main/resources/upload/room_1/who_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khactu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B1E3E8-AD58-0243-9A94-ED3FEB2393C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179030D9-798F-3D4A-8C09-9880E4C8851D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="440" windowWidth="24880" windowHeight="15020" xr2:uid="{CE82CFD4-B455-814E-9572-F618F598D35B}"/>
+    <workbookView xWindow="500" yWindow="440" windowWidth="25100" windowHeight="15560" xr2:uid="{ED74964C-72F5-A64D-8F98-FC74034FB58D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Khac Tu</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+  <si>
+    <t>29-11-2018 9:12:20</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:13:21</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:12:25</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:12:30</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:13:45</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:14:12</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:15:24</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:15:10</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:15:47</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:16:41</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:15:48</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:18:20</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:19:21</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:20:31</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:21:57</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:23:23</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:23:31</t>
+  </si>
+  <si>
+    <t>29-11-2018 9:25:10</t>
+  </si>
+  <si>
+    <t>Khắc Tư</t>
   </si>
   <si>
     <t>Mai Lan</t>
   </si>
   <si>
-    <t>Le Thu</t>
+    <t>Lê Thu</t>
   </si>
 </sst>
 </file>
@@ -384,55 +438,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0123E69-9CCE-4B4C-8C4B-B3A2C002ECB8}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CBD95B-B066-454C-94A4-A7BADFE67B02}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>22</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
